--- a/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C052814-ED84-433F-AD30-055ACFCA06FC}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4824ECA5-B68C-4ED6-8E9E-B13C45FF9698}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -213,15 +213,6 @@
   </si>
   <si>
     <t>Percentil 1</t>
-  </si>
-  <si>
-    <t>Percentil 25</t>
-  </si>
-  <si>
-    <t>Percentil 50</t>
-  </si>
-  <si>
-    <t>Percentil 75</t>
   </si>
   <si>
     <t>Percentil 99</t>
@@ -8908,13 +8899,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -8944,13 +8935,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
@@ -8980,13 +8971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -9016,13 +9007,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
@@ -9052,13 +9043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
@@ -9088,13 +9079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
@@ -9124,13 +9115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
@@ -9160,13 +9151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>194310</xdr:rowOff>
@@ -9196,13 +9187,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
       <xdr:row>171</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
@@ -9550,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9563,13 +9554,13 @@
     <col min="3" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>55</v>
@@ -9586,33 +9577,21 @@
       <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -9629,22 +9608,13 @@
         <v>-1.8</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="5">
         <v>3.1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9661,22 +9631,13 @@
         <v>-1.7</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9693,22 +9654,13 @@
         <v>-1.6</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I5" s="2">
         <v>1.9</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9725,22 +9677,13 @@
         <v>-1.7</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="2">
         <v>1.7</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9757,22 +9700,13 @@
         <v>-1.4</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="2">
         <v>1.7</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9789,22 +9723,13 @@
         <v>-1.4</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="2">
         <v>1.4</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9821,22 +9746,13 @@
         <v>-1.4</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="2">
         <v>1.2</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9853,22 +9769,13 @@
         <v>-1.4</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="2">
         <v>1.2</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9885,22 +9792,13 @@
         <v>-1.4</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="2">
         <v>1.2</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9917,22 +9815,13 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
         <v>1.2</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9949,22 +9838,13 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
         <v>0.8</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9981,22 +9861,13 @@
         <v>-0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
         <v>0.6</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10013,22 +9884,13 @@
         <v>-0.5</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
         <v>0.4</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10045,22 +9907,13 @@
         <v>-1.2</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
         <v>0.6</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10077,22 +9930,13 @@
         <v>-0.8</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
         <v>0.6</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10109,22 +9953,13 @@
         <v>-0.7</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
         <v>0.6</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10141,22 +9976,13 @@
         <v>-0.1</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
         <v>0.1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10175,20 +10001,11 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -10207,33 +10024,21 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -10250,22 +10055,13 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="I23" s="2">
         <v>4.8</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -10282,22 +10078,13 @@
         <v>-3.9</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I24" s="2">
         <v>4.8</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -10314,22 +10101,13 @@
         <v>-2.1</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="I25" s="2">
         <v>3.9</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -10346,22 +10124,13 @@
         <v>-2.1</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
         <v>3.5</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -10378,22 +10147,13 @@
         <v>-2.1</v>
       </c>
       <c r="F27" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="2">
         <v>3.5</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -10410,22 +10170,13 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="F28" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I28" s="2">
         <v>3.1</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -10442,22 +10193,13 @@
         <v>-1.8</v>
       </c>
       <c r="F29" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="2">
         <v>2.7</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -10474,22 +10216,13 @@
         <v>-1.8</v>
       </c>
       <c r="F30" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I30" s="2">
         <v>2.9</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -10506,22 +10239,13 @@
         <v>-1.7</v>
       </c>
       <c r="F31" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I31" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -10538,22 +10262,13 @@
         <v>-1.7</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="2">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -10570,22 +10285,13 @@
         <v>-0.9</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
         <v>1.7</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -10602,22 +10308,13 @@
         <v>-1.4</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -10634,22 +10331,13 @@
         <v>-0.7</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
         <v>0.8</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -10666,22 +10354,13 @@
         <v>-1</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
         <v>1.6</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -10698,22 +10377,13 @@
         <v>-1</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
         <v>1.6</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>16</v>
       </c>
@@ -10730,22 +10400,13 @@
         <v>-0.6</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
         <v>1.6</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>17</v>
       </c>
@@ -10762,22 +10423,13 @@
         <v>-0.4</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
         <v>1.6</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>18</v>
       </c>
@@ -10796,20 +10448,11 @@
       <c r="F40" s="2">
         <v>0</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>19</v>
       </c>
@@ -10828,33 +10471,21 @@
       <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -10871,22 +10502,13 @@
         <v>-32</v>
       </c>
       <c r="F43" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="I43" s="2">
         <v>21.4</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -10903,22 +10525,13 @@
         <v>-26.8</v>
       </c>
       <c r="F44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H44" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="I44" s="2">
         <v>21</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -10935,22 +10548,13 @@
         <v>-26.7</v>
       </c>
       <c r="F45" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="I45" s="2">
         <v>21.4</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -10967,22 +10571,13 @@
         <v>-26.7</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="I46" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -10999,22 +10594,13 @@
         <v>-25.3</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="I47" s="2">
         <v>12.2</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -11031,22 +10617,13 @@
         <v>-25.3</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I48" s="2">
         <v>10.7</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -11063,22 +10640,13 @@
         <v>-24.4</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I49" s="2">
         <v>10.7</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>8</v>
       </c>
@@ -11095,22 +10663,13 @@
         <v>-25.3</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I50" s="2">
         <v>10</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>9</v>
       </c>
@@ -11127,22 +10686,13 @@
         <v>-24.2</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>10</v>
       </c>
@@ -11159,22 +10709,13 @@
         <v>-19.7</v>
       </c>
       <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
         <v>9.9</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>11</v>
       </c>
@@ -11191,22 +10732,13 @@
         <v>-19.7</v>
       </c>
       <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
         <v>7.8</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>12</v>
       </c>
@@ -11223,22 +10755,13 @@
         <v>-19.2</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
         <v>3.5</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>13</v>
       </c>
@@ -11257,20 +10780,11 @@
       <c r="F55" s="2">
         <v>0</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -11287,22 +10801,13 @@
         <v>-32.4</v>
       </c>
       <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
         <v>6.4</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>15</v>
       </c>
@@ -11319,22 +10824,13 @@
         <v>-32.4</v>
       </c>
       <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
         <v>6.4</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>16</v>
       </c>
@@ -11351,22 +10847,13 @@
         <v>-32.4</v>
       </c>
       <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
         <v>6.4</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>17</v>
       </c>
@@ -11383,22 +10870,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
         <v>6.4</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>18</v>
       </c>
@@ -11417,20 +10895,11 @@
       <c r="F60" s="2">
         <v>0</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>19</v>
       </c>
@@ -11449,33 +10918,21 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -11492,22 +10949,13 @@
         <v>-2.9</v>
       </c>
       <c r="F63" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I63" s="2">
         <v>5.3</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -11524,22 +10972,13 @@
         <v>-3.1</v>
       </c>
       <c r="F64" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I64" s="2">
         <v>4.3</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -11556,22 +10995,13 @@
         <v>-2.4</v>
       </c>
       <c r="F65" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I65" s="2">
         <v>4.3</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -11588,22 +11018,13 @@
         <v>-2.1</v>
       </c>
       <c r="F66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I66" s="2">
         <v>3.7</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -11620,22 +11041,13 @@
         <v>-1.9</v>
       </c>
       <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I67" s="2">
         <v>4</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>6</v>
       </c>
@@ -11652,22 +11064,13 @@
         <v>-1.9</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I68" s="2">
         <v>4</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -11684,22 +11087,13 @@
         <v>-1.9</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="2">
         <v>4</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -11716,22 +11110,13 @@
         <v>-1.7</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I70" s="2">
         <v>4</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -11748,22 +11133,13 @@
         <v>-1.3</v>
       </c>
       <c r="F71" s="2">
-        <v>0</v>
-      </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
         <v>3.7</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>10</v>
       </c>
@@ -11780,22 +11156,13 @@
         <v>-1</v>
       </c>
       <c r="F72" s="2">
-        <v>0</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
         <v>3.1</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -11812,22 +11179,13 @@
         <v>-0.7</v>
       </c>
       <c r="F73" s="2">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
         <v>3.1</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>12</v>
       </c>
@@ -11844,22 +11202,13 @@
         <v>-0.6</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2">
         <v>1.3</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>13</v>
       </c>
@@ -11876,22 +11225,13 @@
         <v>-0.4</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
         <v>0.3</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>14</v>
       </c>
@@ -11908,22 +11248,13 @@
         <v>-2.8</v>
       </c>
       <c r="F76" s="2">
-        <v>0</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
         <v>3.1</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>15</v>
       </c>
@@ -11940,22 +11271,13 @@
         <v>-2.8</v>
       </c>
       <c r="F77" s="2">
-        <v>0</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
         <v>3.1</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>16</v>
       </c>
@@ -11972,22 +11294,13 @@
         <v>-0.1</v>
       </c>
       <c r="F78" s="2">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
         <v>3.1</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>17</v>
       </c>
@@ -12004,22 +11317,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
         <v>0.6</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>18</v>
       </c>
@@ -12038,20 +11342,11 @@
       <c r="F80" s="2">
         <v>0</v>
       </c>
-      <c r="G80" s="2">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>19</v>
       </c>
@@ -12070,33 +11365,21 @@
       <c r="F81" s="2">
         <v>0</v>
       </c>
-      <c r="G81" s="2">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -12113,22 +11396,13 @@
         <v>-5</v>
       </c>
       <c r="F83" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G83" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H83" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I83" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -12145,22 +11419,13 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="F84" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G84" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I84" s="2">
         <v>3.5</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -12177,22 +11442,13 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="F85" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I85" s="2">
         <v>3.3</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -12209,22 +11465,13 @@
         <v>-4.7</v>
       </c>
       <c r="F86" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G86" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I86" s="2">
         <v>2.7</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -12241,22 +11488,13 @@
         <v>-3.3</v>
       </c>
       <c r="F87" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I87" s="2">
         <v>2.6</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -12273,22 +11511,13 @@
         <v>-3.3</v>
       </c>
       <c r="F88" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I88" s="2">
         <v>2.5</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>7</v>
       </c>
@@ -12305,22 +11534,13 @@
         <v>-3.5</v>
       </c>
       <c r="F89" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I89" s="2">
         <v>2.5</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -12337,22 +11557,13 @@
         <v>-3.5</v>
       </c>
       <c r="F90" s="2">
-        <v>0</v>
-      </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I90" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>9</v>
       </c>
@@ -12369,22 +11580,13 @@
         <v>-3.5</v>
       </c>
       <c r="F91" s="2">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I91" s="2">
         <v>2.1</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>10</v>
       </c>
@@ -12401,22 +11603,13 @@
         <v>-2.9</v>
       </c>
       <c r="F92" s="2">
-        <v>0</v>
-      </c>
-      <c r="G92" s="2">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
         <v>1.7</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>11</v>
       </c>
@@ -12433,22 +11626,13 @@
         <v>-2.9</v>
       </c>
       <c r="F93" s="2">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2">
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
         <v>1.6</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>12</v>
       </c>
@@ -12465,22 +11649,13 @@
         <v>-1.9</v>
       </c>
       <c r="F94" s="2">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>13</v>
       </c>
@@ -12497,22 +11672,13 @@
         <v>-1.4</v>
       </c>
       <c r="F95" s="2">
-        <v>0</v>
-      </c>
-      <c r="G95" s="2">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2">
         <v>0.4</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>14</v>
       </c>
@@ -12529,22 +11695,13 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="F96" s="2">
-        <v>0</v>
-      </c>
-      <c r="G96" s="2">
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2">
         <v>0.6</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>15</v>
       </c>
@@ -12561,22 +11718,13 @@
         <v>-1.9</v>
       </c>
       <c r="F97" s="2">
-        <v>0</v>
-      </c>
-      <c r="G97" s="2">
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2">
         <v>0.5</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>16</v>
       </c>
@@ -12593,22 +11741,13 @@
         <v>-1.9</v>
       </c>
       <c r="F98" s="2">
-        <v>0</v>
-      </c>
-      <c r="G98" s="2">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
         <v>0.3</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>17</v>
       </c>
@@ -12627,20 +11766,11 @@
       <c r="F99" s="2">
         <v>0</v>
       </c>
-      <c r="G99" s="2">
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>18</v>
       </c>
@@ -12659,20 +11789,11 @@
       <c r="F100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>19</v>
       </c>
@@ -12691,33 +11812,21 @@
       <c r="F101" s="2">
         <v>0</v>
       </c>
-      <c r="G101" s="2">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -12734,22 +11843,13 @@
         <v>-1.3</v>
       </c>
       <c r="F103" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G103" s="2">
-        <v>0</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I103" s="2">
         <v>1</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -12766,22 +11866,13 @@
         <v>-1</v>
       </c>
       <c r="F104" s="2">
-        <v>0</v>
-      </c>
-      <c r="G104" s="2">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I104" s="2">
         <v>1.3</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -12798,22 +11889,13 @@
         <v>-0.7</v>
       </c>
       <c r="F105" s="2">
-        <v>0</v>
-      </c>
-      <c r="G105" s="2">
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I105" s="2">
         <v>1</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -12830,22 +11912,13 @@
         <v>-0.3</v>
       </c>
       <c r="F106" s="2">
-        <v>0</v>
-      </c>
-      <c r="G106" s="2">
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I106" s="2">
         <v>0.9</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>5</v>
       </c>
@@ -12862,22 +11935,13 @@
         <v>-0.4</v>
       </c>
       <c r="F107" s="2">
-        <v>0</v>
-      </c>
-      <c r="G107" s="2">
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2">
         <v>0.9</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -12894,22 +11958,13 @@
         <v>-0.3</v>
       </c>
       <c r="F108" s="2">
-        <v>0</v>
-      </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2">
         <v>0.9</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>7</v>
       </c>
@@ -12926,22 +11981,13 @@
         <v>-0.2</v>
       </c>
       <c r="F109" s="2">
-        <v>0</v>
-      </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <v>0</v>
-      </c>
-      <c r="I109" s="2">
         <v>0.5</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>8</v>
       </c>
@@ -12958,22 +12004,13 @@
         <v>-0.2</v>
       </c>
       <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
         <v>0.4</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>9</v>
       </c>
@@ -12990,22 +12027,13 @@
         <v>-0.2</v>
       </c>
       <c r="F111" s="2">
-        <v>0</v>
-      </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2">
         <v>0.5</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>10</v>
       </c>
@@ -13022,22 +12050,13 @@
         <v>-0.1</v>
       </c>
       <c r="F112" s="2">
-        <v>0</v>
-      </c>
-      <c r="G112" s="2">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2">
         <v>0.4</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>11</v>
       </c>
@@ -13054,22 +12073,13 @@
         <v>-0.1</v>
       </c>
       <c r="F113" s="2">
-        <v>0</v>
-      </c>
-      <c r="G113" s="2">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2">
         <v>0.4</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>12</v>
       </c>
@@ -13086,22 +12096,13 @@
         <v>-0.1</v>
       </c>
       <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2">
         <v>0.3</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>13</v>
       </c>
@@ -13120,20 +12121,11 @@
       <c r="F115" s="2">
         <v>0</v>
       </c>
-      <c r="G115" s="2">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>14</v>
       </c>
@@ -13152,33 +12144,21 @@
       <c r="F116" s="2">
         <v>0</v>
       </c>
-      <c r="G116" s="2">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -13195,22 +12175,13 @@
         <v>-7.2</v>
       </c>
       <c r="F118" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G118" s="2">
-        <v>0</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I118" s="2">
         <v>5.8</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -13227,22 +12198,13 @@
         <v>-6.9</v>
       </c>
       <c r="F119" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G119" s="2">
-        <v>0</v>
-      </c>
-      <c r="H119" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I119" s="2">
         <v>5.7</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>3</v>
       </c>
@@ -13259,22 +12221,13 @@
         <v>-6.9</v>
       </c>
       <c r="F120" s="2">
-        <v>0</v>
-      </c>
-      <c r="G120" s="2">
-        <v>0</v>
-      </c>
-      <c r="H120" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I120" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -13291,22 +12244,13 @@
         <v>-7.1</v>
       </c>
       <c r="F121" s="2">
-        <v>0</v>
-      </c>
-      <c r="G121" s="2">
-        <v>0</v>
-      </c>
-      <c r="H121" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I121" s="2">
         <v>4</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>5</v>
       </c>
@@ -13323,22 +12267,13 @@
         <v>-7.1</v>
       </c>
       <c r="F122" s="2">
-        <v>0</v>
-      </c>
-      <c r="G122" s="2">
-        <v>0</v>
-      </c>
-      <c r="H122" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I122" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>6</v>
       </c>
@@ -13355,22 +12290,13 @@
         <v>-7.1</v>
       </c>
       <c r="F123" s="2">
-        <v>0</v>
-      </c>
-      <c r="G123" s="2">
-        <v>0</v>
-      </c>
-      <c r="H123" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I123" s="2">
         <v>4</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>7</v>
       </c>
@@ -13387,22 +12313,13 @@
         <v>-7.1</v>
       </c>
       <c r="F124" s="2">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2">
-        <v>0</v>
-      </c>
-      <c r="H124" s="2">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2">
         <v>4</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -13419,22 +12336,13 @@
         <v>-7.1</v>
       </c>
       <c r="F125" s="2">
-        <v>0</v>
-      </c>
-      <c r="G125" s="2">
-        <v>0</v>
-      </c>
-      <c r="H125" s="2">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2">
         <v>4</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>9</v>
       </c>
@@ -13451,22 +12359,13 @@
         <v>-7.1</v>
       </c>
       <c r="F126" s="2">
-        <v>0</v>
-      </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2">
         <v>2</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>10</v>
       </c>
@@ -13483,22 +12382,13 @@
         <v>-6.9</v>
       </c>
       <c r="F127" s="2">
-        <v>0</v>
-      </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2">
         <v>3.5</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>11</v>
       </c>
@@ -13515,22 +12405,13 @@
         <v>-5.9</v>
       </c>
       <c r="F128" s="2">
-        <v>0</v>
-      </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
-      <c r="H128" s="2">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2">
         <v>2</v>
       </c>
-      <c r="J128" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>12</v>
       </c>
@@ -13547,22 +12428,13 @@
         <v>-1.7</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2">
-        <v>0</v>
-      </c>
-      <c r="H129" s="2">
-        <v>0</v>
-      </c>
-      <c r="I129" s="2">
         <v>2</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>13</v>
       </c>
@@ -13581,20 +12453,11 @@
       <c r="F130" s="2">
         <v>0</v>
       </c>
-      <c r="G130" s="2">
-        <v>0</v>
-      </c>
-      <c r="H130" s="2">
-        <v>0</v>
-      </c>
-      <c r="I130" s="2">
-        <v>0</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>14</v>
       </c>
@@ -13611,22 +12474,13 @@
         <v>-7.1</v>
       </c>
       <c r="F131" s="2">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2">
-        <v>0</v>
-      </c>
-      <c r="H131" s="2">
-        <v>0</v>
-      </c>
-      <c r="I131" s="2">
         <v>5.3</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -13643,22 +12497,13 @@
         <v>-7.1</v>
       </c>
       <c r="F132" s="2">
-        <v>0</v>
-      </c>
-      <c r="G132" s="2">
-        <v>0</v>
-      </c>
-      <c r="H132" s="2">
-        <v>0</v>
-      </c>
-      <c r="I132" s="2">
         <v>5.3</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>16</v>
       </c>
@@ -13677,20 +12522,11 @@
       <c r="F133" s="2">
         <v>0</v>
       </c>
-      <c r="G133" s="2">
-        <v>0</v>
-      </c>
-      <c r="H133" s="2">
-        <v>0</v>
-      </c>
-      <c r="I133" s="2">
-        <v>0</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>17</v>
       </c>
@@ -13709,20 +12545,11 @@
       <c r="F134" s="2">
         <v>0</v>
       </c>
-      <c r="G134" s="2">
-        <v>0</v>
-      </c>
-      <c r="H134" s="2">
-        <v>0</v>
-      </c>
-      <c r="I134" s="2">
-        <v>0</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>18</v>
       </c>
@@ -13741,20 +12568,11 @@
       <c r="F135" s="2">
         <v>0</v>
       </c>
-      <c r="G135" s="2">
-        <v>0</v>
-      </c>
-      <c r="H135" s="2">
-        <v>0</v>
-      </c>
-      <c r="I135" s="2">
-        <v>0</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>19</v>
       </c>
@@ -13773,33 +12591,21 @@
       <c r="F136" s="2">
         <v>0</v>
       </c>
-      <c r="G136" s="2">
-        <v>0</v>
-      </c>
-      <c r="H136" s="2">
-        <v>0</v>
-      </c>
-      <c r="I136" s="2">
-        <v>0</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -13816,22 +12622,13 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="F138" s="2">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2">
-        <v>0</v>
-      </c>
-      <c r="H138" s="2">
-        <v>1</v>
-      </c>
-      <c r="I138" s="2">
         <v>10.6</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -13848,22 +12645,13 @@
         <v>-3.5</v>
       </c>
       <c r="F139" s="2">
-        <v>0</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
-      <c r="H139" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I139" s="2">
         <v>6.5</v>
       </c>
-      <c r="J139" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -13880,22 +12668,13 @@
         <v>-3.2</v>
       </c>
       <c r="F140" s="2">
-        <v>0</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I140" s="2">
         <v>6.2</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G140" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>4</v>
       </c>
@@ -13912,22 +12691,13 @@
         <v>-3.2</v>
       </c>
       <c r="F141" s="2">
-        <v>0</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I141" s="2">
         <v>3.7</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -13944,22 +12714,13 @@
         <v>-2.7</v>
       </c>
       <c r="F142" s="2">
-        <v>0</v>
-      </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
-      <c r="H142" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I142" s="2">
         <v>3.6</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G142" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>6</v>
       </c>
@@ -13976,22 +12737,13 @@
         <v>-2.6</v>
       </c>
       <c r="F143" s="2">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I143" s="2">
         <v>3.7</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>7</v>
       </c>
@@ -14008,22 +12760,13 @@
         <v>-2.6</v>
       </c>
       <c r="F144" s="2">
-        <v>0</v>
-      </c>
-      <c r="G144" s="2">
-        <v>0</v>
-      </c>
-      <c r="H144" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I144" s="2">
         <v>3.7</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>8</v>
       </c>
@@ -14040,22 +12783,13 @@
         <v>-2.6</v>
       </c>
       <c r="F145" s="2">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2">
-        <v>0</v>
-      </c>
-      <c r="H145" s="2">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2">
         <v>3.7</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>9</v>
       </c>
@@ -14072,22 +12806,13 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="F146" s="2">
-        <v>0</v>
-      </c>
-      <c r="G146" s="2">
-        <v>0</v>
-      </c>
-      <c r="H146" s="2">
-        <v>0</v>
-      </c>
-      <c r="I146" s="2">
         <v>3.7</v>
       </c>
-      <c r="J146" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G146" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>10</v>
       </c>
@@ -14104,22 +12829,13 @@
         <v>-1.5</v>
       </c>
       <c r="F147" s="2">
-        <v>0</v>
-      </c>
-      <c r="G147" s="2">
-        <v>0</v>
-      </c>
-      <c r="H147" s="2">
-        <v>0</v>
-      </c>
-      <c r="I147" s="2">
         <v>3.7</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G147" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>11</v>
       </c>
@@ -14136,22 +12852,13 @@
         <v>-1.4</v>
       </c>
       <c r="F148" s="2">
-        <v>0</v>
-      </c>
-      <c r="G148" s="2">
-        <v>0</v>
-      </c>
-      <c r="H148" s="2">
-        <v>0</v>
-      </c>
-      <c r="I148" s="2">
         <v>2.5</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>12</v>
       </c>
@@ -14168,22 +12875,13 @@
         <v>-0.7</v>
       </c>
       <c r="F149" s="2">
-        <v>0</v>
-      </c>
-      <c r="G149" s="2">
-        <v>0</v>
-      </c>
-      <c r="H149" s="2">
-        <v>0</v>
-      </c>
-      <c r="I149" s="2">
         <v>1.3</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>13</v>
       </c>
@@ -14200,22 +12898,13 @@
         <v>-0.3</v>
       </c>
       <c r="F150" s="2">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2">
-        <v>0</v>
-      </c>
-      <c r="I150" s="2">
         <v>0.4</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>14</v>
       </c>
@@ -14232,22 +12921,13 @@
         <v>-0.8</v>
       </c>
       <c r="F151" s="2">
-        <v>0</v>
-      </c>
-      <c r="G151" s="2">
-        <v>0</v>
-      </c>
-      <c r="H151" s="2">
-        <v>0</v>
-      </c>
-      <c r="I151" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>15</v>
       </c>
@@ -14264,22 +12944,13 @@
         <v>-0.8</v>
       </c>
       <c r="F152" s="2">
-        <v>0</v>
-      </c>
-      <c r="G152" s="2">
-        <v>0</v>
-      </c>
-      <c r="H152" s="2">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J152" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>16</v>
       </c>
@@ -14296,22 +12967,13 @@
         <v>-0.1</v>
       </c>
       <c r="F153" s="2">
-        <v>0</v>
-      </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0</v>
-      </c>
-      <c r="I153" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>17</v>
       </c>
@@ -14328,22 +12990,13 @@
         <v>-0.1</v>
       </c>
       <c r="F154" s="2">
-        <v>0</v>
-      </c>
-      <c r="G154" s="2">
-        <v>0</v>
-      </c>
-      <c r="H154" s="2">
-        <v>0</v>
-      </c>
-      <c r="I154" s="2">
         <v>0.1</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>18</v>
       </c>
@@ -14362,20 +13015,11 @@
       <c r="F155" s="2">
         <v>0</v>
       </c>
-      <c r="G155" s="2">
-        <v>0</v>
-      </c>
-      <c r="H155" s="2">
-        <v>0</v>
-      </c>
-      <c r="I155" s="2">
-        <v>0</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G155" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>19</v>
       </c>
@@ -14394,33 +13038,21 @@
       <c r="F156" s="2">
         <v>0</v>
       </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-      <c r="H156" s="2">
-        <v>0</v>
-      </c>
-      <c r="I156" s="2">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>1</v>
       </c>
@@ -14437,22 +13069,13 @@
         <v>-2.4</v>
       </c>
       <c r="F158" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="G158" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H158" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="I158" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J158" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G158" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -14469,22 +13092,13 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="F159" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G159" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H159" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I159" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G159" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -14501,22 +13115,13 @@
         <v>-2.1</v>
       </c>
       <c r="F160" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G160" s="2">
-        <v>0</v>
-      </c>
-      <c r="H160" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I160" s="2">
         <v>2.1</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>4</v>
       </c>
@@ -14533,22 +13138,13 @@
         <v>-1.9</v>
       </c>
       <c r="F161" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I161" s="2">
         <v>1.8</v>
       </c>
-      <c r="J161" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -14565,22 +13161,13 @@
         <v>-1.9</v>
       </c>
       <c r="F162" s="2">
-        <v>-0.15</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I162" s="2">
         <v>1.8</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>6</v>
       </c>
@@ -14597,22 +13184,13 @@
         <v>-1.9</v>
       </c>
       <c r="F163" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I163" s="2">
         <v>1.8</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>7</v>
       </c>
@@ -14629,22 +13207,13 @@
         <v>-1.9</v>
       </c>
       <c r="F164" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G164" s="2">
-        <v>0</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I164" s="2">
         <v>1.8</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -14661,22 +13230,13 @@
         <v>-1.9</v>
       </c>
       <c r="F165" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I165" s="2">
         <v>1.8</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>9</v>
       </c>
@@ -14693,22 +13253,13 @@
         <v>-1.8</v>
       </c>
       <c r="F166" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I166" s="2">
         <v>1.8</v>
       </c>
-      <c r="J166" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>10</v>
       </c>
@@ -14725,22 +13276,13 @@
         <v>-1.7</v>
       </c>
       <c r="F167" s="2">
-        <v>0</v>
-      </c>
-      <c r="G167" s="2">
-        <v>0</v>
-      </c>
-      <c r="H167" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I167" s="2">
         <v>1.8</v>
       </c>
-      <c r="J167" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G167" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>11</v>
       </c>
@@ -14757,22 +13299,13 @@
         <v>-1.5</v>
       </c>
       <c r="F168" s="2">
-        <v>0</v>
-      </c>
-      <c r="G168" s="2">
-        <v>0</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
-      </c>
-      <c r="I168" s="2">
         <v>1.8</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>12</v>
       </c>
@@ -14789,22 +13322,13 @@
         <v>-0.8</v>
       </c>
       <c r="F169" s="2">
-        <v>0</v>
-      </c>
-      <c r="G169" s="2">
-        <v>0</v>
-      </c>
-      <c r="H169" s="2">
-        <v>0</v>
-      </c>
-      <c r="I169" s="2">
         <v>1</v>
       </c>
-      <c r="J169" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>13</v>
       </c>
@@ -14821,22 +13345,13 @@
         <v>-0.2</v>
       </c>
       <c r="F170" s="2">
-        <v>0</v>
-      </c>
-      <c r="G170" s="2">
-        <v>0</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0</v>
-      </c>
-      <c r="I170" s="2">
         <v>0.3</v>
       </c>
-      <c r="J170" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>14</v>
       </c>
@@ -14853,22 +13368,13 @@
         <v>-0.5</v>
       </c>
       <c r="F171" s="2">
-        <v>0</v>
-      </c>
-      <c r="G171" s="2">
-        <v>0</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0</v>
-      </c>
-      <c r="I171" s="2">
         <v>0.4</v>
       </c>
-      <c r="J171" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>15</v>
       </c>
@@ -14885,22 +13391,13 @@
         <v>-0.5</v>
       </c>
       <c r="F172" s="2">
-        <v>0</v>
-      </c>
-      <c r="G172" s="2">
-        <v>0</v>
-      </c>
-      <c r="H172" s="2">
-        <v>0</v>
-      </c>
-      <c r="I172" s="2">
         <v>0.1</v>
       </c>
-      <c r="J172" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>16</v>
       </c>
@@ -14917,22 +13414,13 @@
         <v>-0.5</v>
       </c>
       <c r="F173" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="G173" s="2">
-        <v>0</v>
-      </c>
-      <c r="H173" s="2">
-        <v>0</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>17</v>
       </c>
@@ -14951,30 +13439,21 @@
       <c r="F174" s="7">
         <v>0</v>
       </c>
-      <c r="G174" s="7">
-        <v>0</v>
-      </c>
-      <c r="H174" s="7">
-        <v>0</v>
-      </c>
-      <c r="I174" s="7">
-        <v>0</v>
-      </c>
-      <c r="J174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A102:F102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4824ECA5-B68C-4ED6-8E9E-B13C45FF9698}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CCBB3A-307B-489E-AD3B-999172C77E11}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -203,22 +203,7 @@
     <t>0.104**</t>
   </si>
   <si>
-    <t>N° de observaciones</t>
-  </si>
-  <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Desviación Estándar</t>
-  </si>
-  <si>
-    <t>Percentil 1</t>
-  </si>
-  <si>
-    <t>Percentil 99</t>
-  </si>
-  <si>
-    <t>Horizonte (h)</t>
   </si>
   <si>
     <t>PBI</t>
@@ -246,6 +231,21 @@
   </si>
   <si>
     <t>Otros Servicios</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -9544,38 +9544,38 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -11371,7 +11371,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>

--- a/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_e_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CCBB3A-307B-489E-AD3B-999172C77E11}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5929BAC3-36F1-4850-BB99-E69501CB7970}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -36,75 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0.313***</t>
-  </si>
-  <si>
-    <t>0.255***</t>
-  </si>
-  <si>
-    <t>0.171***</t>
-  </si>
-  <si>
-    <t>0.110***</t>
-  </si>
-  <si>
-    <t>0.086***</t>
   </si>
   <si>
     <t>0.058**</t>
   </si>
   <si>
-    <t>0.791***</t>
-  </si>
-  <si>
-    <t>0.750***</t>
-  </si>
-  <si>
-    <t>0.598***</t>
-  </si>
-  <si>
-    <t>0.409***</t>
-  </si>
-  <si>
-    <t>0.304***</t>
-  </si>
-  <si>
-    <t>0.227***</t>
-  </si>
-  <si>
-    <t>0.163***</t>
-  </si>
-  <si>
     <t>0.134***</t>
-  </si>
-  <si>
-    <t>0.089***</t>
-  </si>
-  <si>
-    <t>0.055*</t>
-  </si>
-  <si>
-    <t>0.039*</t>
-  </si>
-  <si>
-    <t>1.569***</t>
-  </si>
-  <si>
-    <t>1.467***</t>
-  </si>
-  <si>
-    <t>1.256***</t>
-  </si>
-  <si>
-    <t>-0.352**</t>
-  </si>
-  <si>
-    <t>-0.251*</t>
   </si>
   <si>
     <t>0.438***</t>
@@ -246,6 +186,63 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>0.272***</t>
+  </si>
+  <si>
+    <t>0.204***</t>
+  </si>
+  <si>
+    <t>0.124***</t>
+  </si>
+  <si>
+    <t>0.068*</t>
+  </si>
+  <si>
+    <t>0.792***</t>
+  </si>
+  <si>
+    <t>0.745***</t>
+  </si>
+  <si>
+    <t>0.584***</t>
+  </si>
+  <si>
+    <t>0.401***</t>
+  </si>
+  <si>
+    <t>0.290***</t>
+  </si>
+  <si>
+    <t>0.208***</t>
+  </si>
+  <si>
+    <t>0.144***</t>
+  </si>
+  <si>
+    <t>0.113***</t>
+  </si>
+  <si>
+    <t>0.073**</t>
+  </si>
+  <si>
+    <t>0.053*</t>
+  </si>
+  <si>
+    <t>0.043*</t>
+  </si>
+  <si>
+    <t>1.326*</t>
+  </si>
+  <si>
+    <t>0.914*</t>
+  </si>
+  <si>
+    <t>-0.458**</t>
+  </si>
+  <si>
+    <t>-0.234*</t>
   </si>
 </sst>
 </file>
@@ -514,51 +511,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$21</c:f>
+              <c:f>Hoja1!$F$3:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.80700000000000005</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58099999999999996</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48699999999999999</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43</c:v>
+                  <c:v>0.495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39100000000000001</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34899999999999998</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.35599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.121</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.252</c:v>
@@ -910,51 +907,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$23:$D$41</c:f>
+              <c:f>Hoja1!$F$23:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7749999999999999</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.506</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.216</c:v>
+                  <c:v>1.278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.117</c:v>
+                  <c:v>1.1759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.036</c:v>
+                  <c:v>1.093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>1.042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88700000000000001</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74199999999999999</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.434</c:v>
+                  <c:v>0.46200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.318</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.218</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.313</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.38100000000000001</c:v>
@@ -1306,51 +1303,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$43:$D$61</c:f>
+              <c:f>Hoja1!$F$43:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.2759999999999998</c:v>
+                  <c:v>15.125999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0370000000000008</c:v>
+                  <c:v>14.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4060000000000006</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4039999999999999</c:v>
+                  <c:v>9.2550000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8289999999999997</c:v>
+                  <c:v>7.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3179999999999996</c:v>
+                  <c:v>7.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1660000000000004</c:v>
+                  <c:v>7.6859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2720000000000002</c:v>
+                  <c:v>6.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5270000000000001</c:v>
+                  <c:v>6.2130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0359999999999996</c:v>
+                  <c:v>5.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.496</c:v>
+                  <c:v>5.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.29</c:v>
+                  <c:v>4.3289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.59</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7850000000000001</c:v>
+                  <c:v>5.7380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.1829999999999998</c:v>
@@ -8899,16 +8896,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8935,16 +8932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8971,16 +8968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9007,16 +9004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9043,16 +9040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9079,16 +9076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9115,16 +9112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9151,16 +9148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9187,16 +9184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9544,46 +9541,43 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9599,16 +9593,16 @@
         <v>372</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
-        <v>0.80700000000000005</v>
+        <v>-3.3</v>
       </c>
       <c r="E3" s="5">
-        <v>-1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F3" s="5">
-        <v>3.1</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -9619,19 +9613,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>0.69899999999999995</v>
+        <v>-3.4</v>
       </c>
       <c r="E4" s="2">
-        <v>-1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -9642,19 +9636,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>0.66900000000000004</v>
+        <v>-3.4</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F5" s="2">
-        <v>1.9</v>
+        <v>0.81</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -9665,19 +9659,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
-        <v>0.58099999999999996</v>
+        <v>-3.1</v>
       </c>
       <c r="E6" s="2">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
       <c r="F6" s="2">
-        <v>1.7</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -9688,19 +9682,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>364</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>372</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.48699999999999999</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E7" s="2">
-        <v>-1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F7" s="2">
-        <v>1.7</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -9711,19 +9705,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>361</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>371</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.47099999999999997</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="2">
-        <v>-1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F8" s="2">
-        <v>1.4</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -9734,19 +9728,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C9" s="2">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>0.43</v>
+        <v>-1.8</v>
       </c>
       <c r="E9" s="2">
-        <v>-1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F9" s="2">
-        <v>1.2</v>
+        <v>0.495</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -9757,19 +9751,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42099999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" s="2">
-        <v>-1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.2</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -9780,19 +9774,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>0.39100000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="E11" s="2">
-        <v>-1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F11" s="2">
-        <v>1.2</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -9803,19 +9797,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C12" s="2">
-        <v>1.2E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>0.34899999999999998</v>
+        <v>-1.4</v>
       </c>
       <c r="E12" s="2">
-        <v>-1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.2</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -9826,19 +9820,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.30299999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="E13" s="2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="2">
-        <v>0.8</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -9849,19 +9843,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C14" s="2">
-        <v>-2E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.188</v>
+        <v>-0.7</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>0.6</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -9872,19 +9866,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C15" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>0.121</v>
+        <v>-0.5</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="2">
-        <v>0.4</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -9895,19 +9889,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2">
-        <v>-1.9E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.26800000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="E16" s="2">
-        <v>-1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F16" s="2">
-        <v>0.6</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -9924,13 +9918,13 @@
         <v>-0.02</v>
       </c>
       <c r="D17" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.252</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.6</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
@@ -9947,13 +9941,13 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D18" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.193</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-0.7</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.6</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -9970,13 +9964,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="2">
         <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -10030,7 +10024,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -10046,16 +10040,16 @@
         <v>372</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
-        <v>1.7749999999999999</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="E23" s="2">
-        <v>-4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="F23" s="2">
-        <v>4.8</v>
+        <v>1.83</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -10066,19 +10060,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2">
-        <v>1.506</v>
+        <v>-3.9</v>
       </c>
       <c r="E24" s="2">
-        <v>-3.9</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>4.8</v>
+        <v>1.56</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -10089,19 +10083,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2">
-        <v>1.216</v>
+        <v>-2.1</v>
       </c>
       <c r="E25" s="2">
-        <v>-2.1</v>
+        <v>3.9</v>
       </c>
       <c r="F25" s="2">
-        <v>3.9</v>
+        <v>1.278</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -10112,19 +10106,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2">
-        <v>1.117</v>
+        <v>-2.1</v>
       </c>
       <c r="E26" s="2">
-        <v>-2.1</v>
+        <v>3.8</v>
       </c>
       <c r="F26" s="2">
-        <v>3.5</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -10135,19 +10129,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2">
-        <v>1.036</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>-2.1</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="2">
-        <v>3.5</v>
+        <v>1.093</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -10158,19 +10152,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2">
-        <v>0.98399999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="E28" s="2">
-        <v>-2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="F28" s="2">
-        <v>3.1</v>
+        <v>1.042</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
@@ -10181,19 +10175,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2">
-        <v>0.88700000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="E29" s="2">
-        <v>-1.8</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="2">
-        <v>2.7</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -10204,19 +10198,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2">
-        <v>0.74199999999999999</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="2">
-        <v>-1.8</v>
+        <v>2.9</v>
       </c>
       <c r="F30" s="2">
-        <v>2.9</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
@@ -10227,19 +10221,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
-        <v>0.60499999999999998</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="2">
-        <v>-1.7</v>
+        <v>2.8</v>
       </c>
       <c r="F31" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -10250,19 +10244,19 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2">
-        <v>0.55200000000000005</v>
+        <v>-1.8</v>
       </c>
       <c r="E32" s="2">
-        <v>-1.7</v>
+        <v>2.7</v>
       </c>
       <c r="F32" s="2">
-        <v>2</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -10273,19 +10267,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2">
-        <v>0.434</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.9</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>1.7</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -10296,19 +10290,19 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.318</v>
+        <v>-1.5</v>
       </c>
       <c r="E34" s="2">
-        <v>-1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -10319,19 +10313,19 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2">
         <v>-1E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.218</v>
+        <v>-0.7</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F35" s="2">
-        <v>0.8</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -10342,19 +10336,19 @@
         <v>14</v>
       </c>
       <c r="B36" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="D36" s="2">
-        <v>0.313</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="2">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="F36" s="2">
-        <v>1.6</v>
+        <v>0.31</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
@@ -10371,13 +10365,13 @@
         <v>-4.5999999999999999E-2</v>
       </c>
       <c r="D37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F37" s="2">
         <v>0.38100000000000001</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.6</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
@@ -10394,13 +10388,13 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D38" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.36399999999999999</v>
-      </c>
-      <c r="E38" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.6</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
@@ -10417,13 +10411,13 @@
         <v>6.2E-2</v>
       </c>
       <c r="D39" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.36399999999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.6</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -10477,7 +10471,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -10493,16 +10487,16 @@
         <v>372</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2">
-        <v>8.2759999999999998</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="E43" s="2">
-        <v>-32</v>
+        <v>23.5</v>
       </c>
       <c r="F43" s="2">
-        <v>21.4</v>
+        <v>15.125999999999999</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -10513,19 +10507,19 @@
         <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>370</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>372</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.18</v>
       </c>
       <c r="D44" s="2">
-        <v>8.0370000000000008</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="E44" s="2">
-        <v>-26.8</v>
+        <v>23.5</v>
       </c>
       <c r="F44" s="2">
-        <v>21</v>
+        <v>14.43</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
@@ -10536,19 +10530,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2">
-        <v>8.4060000000000006</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E45" s="2">
-        <v>-26.7</v>
+        <v>23.5</v>
       </c>
       <c r="F45" s="2">
-        <v>21.4</v>
+        <v>10.24</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -10559,19 +10553,19 @@
         <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.126</v>
       </c>
       <c r="D46" s="2">
-        <v>7.4039999999999999</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E46" s="2">
-        <v>-26.7</v>
+        <v>21.4</v>
       </c>
       <c r="F46" s="2">
-        <v>20.399999999999999</v>
+        <v>9.2550000000000008</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -10582,19 +10576,19 @@
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2">
-        <v>0.20899999999999999</v>
+        <v>-0.32100000000000001</v>
       </c>
       <c r="D47" s="2">
-        <v>5.8289999999999997</v>
+        <v>-35.6</v>
       </c>
       <c r="E47" s="2">
-        <v>-25.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F47" s="2">
-        <v>12.2</v>
+        <v>7.9489999999999998</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -10605,19 +10599,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2">
-        <v>0.128</v>
+        <v>-0.40600000000000003</v>
       </c>
       <c r="D48" s="2">
-        <v>5.3179999999999996</v>
+        <v>-32.4</v>
       </c>
       <c r="E48" s="2">
-        <v>-25.3</v>
+        <v>11.6</v>
       </c>
       <c r="F48" s="2">
-        <v>10.7</v>
+        <v>7.3220000000000001</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -10628,19 +10622,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2">
-        <v>0.315</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="D49" s="2">
-        <v>6.1660000000000004</v>
+        <v>-30.8</v>
       </c>
       <c r="E49" s="2">
-        <v>-24.4</v>
+        <v>12.9</v>
       </c>
       <c r="F49" s="2">
-        <v>10.7</v>
+        <v>7.6859999999999999</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -10651,19 +10645,19 @@
         <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.184</v>
+        <v>-0.48699999999999999</v>
       </c>
       <c r="D50" s="2">
-        <v>5.2720000000000002</v>
+        <v>-32.4</v>
       </c>
       <c r="E50" s="2">
-        <v>-25.3</v>
+        <v>10.7</v>
       </c>
       <c r="F50" s="2">
-        <v>10</v>
+        <v>6.84</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -10674,19 +10668,19 @@
         <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.109</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="D51" s="2">
-        <v>4.5270000000000001</v>
+        <v>-26.6</v>
       </c>
       <c r="E51" s="2">
-        <v>-24.2</v>
+        <v>10.7</v>
       </c>
       <c r="F51" s="2">
-        <v>10</v>
+        <v>6.2130000000000001</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -10697,19 +10691,19 @@
         <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2">
-        <v>-9.4E-2</v>
+        <v>-0.371</v>
       </c>
       <c r="D52" s="2">
-        <v>4.0359999999999996</v>
+        <v>-26.6</v>
       </c>
       <c r="E52" s="2">
-        <v>-19.7</v>
+        <v>9.9</v>
       </c>
       <c r="F52" s="2">
-        <v>9.9</v>
+        <v>5.6440000000000001</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
@@ -10720,19 +10714,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.13900000000000001</v>
+        <v>-0.442</v>
       </c>
       <c r="D53" s="2">
-        <v>3.496</v>
+        <v>-26.6</v>
       </c>
       <c r="E53" s="2">
-        <v>-19.7</v>
+        <v>7.8</v>
       </c>
       <c r="F53" s="2">
-        <v>7.8</v>
+        <v>5.3079999999999998</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
@@ -10743,19 +10737,19 @@
         <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2">
-        <v>3.29</v>
+        <v>-25.3</v>
       </c>
       <c r="E54" s="2">
-        <v>-19.2</v>
+        <v>6.4</v>
       </c>
       <c r="F54" s="2">
-        <v>3.5</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
@@ -10766,19 +10760,19 @@
         <v>13</v>
       </c>
       <c r="B55" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2">
-        <v>2.59</v>
+        <v>-13.1</v>
       </c>
       <c r="E55" s="2">
-        <v>-13.1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -10789,19 +10783,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2">
-        <v>-1.0640000000000001</v>
+        <v>-1.0469999999999999</v>
       </c>
       <c r="D56" s="2">
-        <v>5.7850000000000001</v>
+        <v>-32.4</v>
       </c>
       <c r="E56" s="2">
-        <v>-32.4</v>
+        <v>6.4</v>
       </c>
       <c r="F56" s="2">
-        <v>6.4</v>
+        <v>5.7380000000000004</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>0</v>
@@ -10818,13 +10812,13 @@
         <v>-1.171</v>
       </c>
       <c r="D57" s="2">
+        <v>-32.4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F57" s="2">
         <v>6.1829999999999998</v>
-      </c>
-      <c r="E57" s="2">
-        <v>-32.4</v>
-      </c>
-      <c r="F57" s="2">
-        <v>6.4</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>0</v>
@@ -10841,13 +10835,13 @@
         <v>-1.04</v>
       </c>
       <c r="D58" s="2">
+        <v>-32.4</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F58" s="2">
         <v>6.657</v>
-      </c>
-      <c r="E58" s="2">
-        <v>-32.4</v>
-      </c>
-      <c r="F58" s="2">
-        <v>6.4</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>0</v>
@@ -10864,13 +10858,13 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F59" s="2">
         <v>1.397</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>6.4</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
@@ -10924,7 +10918,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -10940,7 +10934,7 @@
         <v>372</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D63" s="2">
         <v>1.333</v>
@@ -10963,7 +10957,7 @@
         <v>370</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2">
         <v>1.165</v>
@@ -10986,7 +10980,7 @@
         <v>368</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2">
         <v>0.997</v>
@@ -11009,7 +11003,7 @@
         <v>366</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2">
         <v>0.877</v>
@@ -11032,7 +11026,7 @@
         <v>364</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
         <v>0.81</v>
@@ -11055,7 +11049,7 @@
         <v>361</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2">
         <v>0.78800000000000003</v>
@@ -11078,7 +11072,7 @@
         <v>358</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2">
         <v>0.72799999999999998</v>
@@ -11101,7 +11095,7 @@
         <v>355</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>0.71199999999999997</v>
@@ -11124,7 +11118,7 @@
         <v>352</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2">
         <v>0.64100000000000001</v>
@@ -11147,7 +11141,7 @@
         <v>349</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2">
         <v>0.57499999999999996</v>
@@ -11170,7 +11164,7 @@
         <v>346</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2">
         <v>0.53600000000000003</v>
@@ -11371,7 +11365,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -11387,7 +11381,7 @@
         <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2">
         <v>1.4590000000000001</v>
@@ -11410,7 +11404,7 @@
         <v>370</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2">
         <v>1.3129999999999999</v>
@@ -11433,7 +11427,7 @@
         <v>368</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2">
         <v>1.2490000000000001</v>
@@ -11456,7 +11450,7 @@
         <v>366</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2">
         <v>1.157</v>
@@ -11479,7 +11473,7 @@
         <v>364</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2">
         <v>0.96299999999999997</v>
@@ -11640,7 +11634,7 @@
         <v>343</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2">
         <v>0.54600000000000004</v>
@@ -11663,7 +11657,7 @@
         <v>324</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2">
         <v>0.314</v>
@@ -11818,7 +11812,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -11857,7 +11851,7 @@
         <v>260</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2">
         <v>0.42899999999999999</v>
@@ -11880,7 +11874,7 @@
         <v>258</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <v>0.44</v>
@@ -11903,7 +11897,7 @@
         <v>256</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2">
         <v>0.35599999999999998</v>
@@ -11949,7 +11943,7 @@
         <v>251</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2">
         <v>0.36099999999999999</v>
@@ -12150,7 +12144,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -12597,7 +12591,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -12613,7 +12607,7 @@
         <v>372</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D138" s="2">
         <v>1.976</v>
@@ -12636,7 +12630,7 @@
         <v>370</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D139" s="2">
         <v>1.7150000000000001</v>
@@ -12659,7 +12653,7 @@
         <v>368</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2">
         <v>1.464</v>
@@ -12682,7 +12676,7 @@
         <v>366</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D141" s="2">
         <v>1.19</v>
@@ -12705,7 +12699,7 @@
         <v>364</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>0.96</v>
@@ -12728,7 +12722,7 @@
         <v>361</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>0.92</v>
@@ -12751,7 +12745,7 @@
         <v>358</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>0.89600000000000002</v>
@@ -12774,7 +12768,7 @@
         <v>355</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>0.88200000000000001</v>
@@ -12797,7 +12791,7 @@
         <v>352</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>0.79200000000000004</v>
@@ -12820,7 +12814,7 @@
         <v>349</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>0.71199999999999997</v>
@@ -12843,7 +12837,7 @@
         <v>346</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>0.58499999999999996</v>
@@ -13044,7 +13038,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -13060,7 +13054,7 @@
         <v>332</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D158" s="5">
         <v>0.90200000000000002</v>
